--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>4568103.60556078</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>28974604.00527869</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.432617926750082e-10</v>
+        <v>2283365.580119614</v>
       </c>
     </row>
     <row r="11">
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,13 +22570,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
         <v>281.0224045372727</v>
@@ -22585,16 +22585,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
         <v>236.785106778059</v>
@@ -22646,16 +22646,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>173.4035213848624</v>
@@ -22664,16 +22664,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
         <v>195.63287444794</v>
@@ -22728,28 +22728,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
         <v>211.6331360021768</v>
@@ -22810,7 +22810,7 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K5" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
         <v>287.6350262633844</v>
@@ -22822,16 +22822,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
         <v>236.785106778059</v>
@@ -22883,10 +22883,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>168.166555548718</v>
@@ -22907,10 +22907,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
@@ -22968,25 +22968,25 @@
         <v>154.9344141560632</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L7" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
         <v>155.7763642475845</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
         <v>211.6331360021768</v>
@@ -23044,31 +23044,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -23123,10 +23123,10 @@
         <v>121.4173036</v>
       </c>
       <c r="J9" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
@@ -23135,7 +23135,7 @@
         <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>173.9674182222222</v>
@@ -23144,10 +23144,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -23202,28 +23202,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
         <v>211.6331360021768</v>
@@ -23284,10 +23284,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K11" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M11" t="n">
         <v>281.0224045372727</v>
@@ -23296,16 +23296,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P11" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R11" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S11" t="n">
         <v>236.785106778059</v>
@@ -23357,16 +23357,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I12" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J12" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -23378,13 +23378,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R12" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S12" t="n">
         <v>195.63287444794</v>
@@ -23439,28 +23439,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J13" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K13" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L13" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M13" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N13" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O13" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P13" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R13" t="n">
         <v>211.6331360021768</v>
@@ -23524,7 +23524,7 @@
         <v>268.5096182748763</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -23539,10 +23539,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R14" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S14" t="n">
         <v>236.785106778059</v>
@@ -23594,16 +23594,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I15" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J15" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -23618,10 +23618,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R15" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S15" t="n">
         <v>195.63287444794</v>
@@ -23679,25 +23679,25 @@
         <v>154.9344141560632</v>
       </c>
       <c r="K16" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L16" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M16" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N16" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O16" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P16" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R16" t="n">
         <v>211.6331360021768</v>
@@ -23755,13 +23755,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J17" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K17" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M17" t="n">
         <v>281.0224045372727</v>
@@ -23770,16 +23770,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P17" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R17" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S17" t="n">
         <v>236.785106778059</v>
@@ -23831,13 +23831,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I18" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J18" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -23855,10 +23855,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R18" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S18" t="n">
         <v>195.63287444794</v>
@@ -23913,28 +23913,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J19" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K19" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L19" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M19" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N19" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O19" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P19" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q19" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R19" t="n">
         <v>211.6331360021768</v>
@@ -24016,7 +24016,7 @@
         <v>271.2129416468284</v>
       </c>
       <c r="R20" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S20" t="n">
         <v>236.785106778059</v>
@@ -24068,10 +24068,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I21" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J21" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K21" t="n">
         <v>168.166555548718</v>
@@ -24092,10 +24092,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R21" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S21" t="n">
         <v>195.63287444794</v>
@@ -24150,10 +24150,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J22" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K22" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L22" t="n">
         <v>164.5593050631107</v>
@@ -24171,7 +24171,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q22" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R22" t="n">
         <v>211.6331360021768</v>
@@ -24229,7 +24229,7 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J23" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K23" t="n">
         <v>268.5096182748763</v>
@@ -24247,13 +24247,13 @@
         <v>280.7198179344578</v>
       </c>
       <c r="P23" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S23" t="n">
         <v>236.785106778059</v>
@@ -24305,16 +24305,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I24" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J24" t="n">
         <v>154.7419045333334</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -24323,16 +24323,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R24" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S24" t="n">
         <v>195.63287444794</v>
@@ -24387,28 +24387,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J25" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K25" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L25" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M25" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N25" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O25" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P25" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q25" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R25" t="n">
         <v>211.6331360021768</v>
@@ -24466,10 +24466,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K26" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L26" t="n">
         <v>287.6350262633844</v>
@@ -24542,10 +24542,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I27" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J27" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K27" t="n">
         <v>168.166555548718</v>
@@ -24560,16 +24560,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R27" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S27" t="n">
         <v>195.63287444794</v>
@@ -24624,28 +24624,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J28" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K28" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L28" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M28" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N28" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O28" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P28" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q28" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R28" t="n">
         <v>211.6331360021768</v>
@@ -24703,13 +24703,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K29" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L29" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M29" t="n">
         <v>281.0224045372727</v>
@@ -24718,7 +24718,7 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P29" t="n">
         <v>282.1042548214289</v>
@@ -24779,10 +24779,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I30" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J30" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K30" t="n">
         <v>168.166555548718</v>
@@ -24803,10 +24803,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R30" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S30" t="n">
         <v>195.63287444794</v>
@@ -24861,28 +24861,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J31" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K31" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L31" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M31" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O31" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P31" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q31" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R31" t="n">
         <v>211.6331360021768</v>
@@ -24940,13 +24940,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K32" t="n">
         <v>268.5096182748763</v>
       </c>
       <c r="L32" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M32" t="n">
         <v>281.0224045372727</v>
@@ -24955,16 +24955,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P32" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q32" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R32" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S32" t="n">
         <v>236.785106778059</v>
@@ -25016,10 +25016,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I33" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J33" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K33" t="n">
         <v>168.166555548718</v>
@@ -25028,22 +25028,22 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R33" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S33" t="n">
         <v>195.63287444794</v>
@@ -25098,28 +25098,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K34" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L34" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M34" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N34" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O34" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P34" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q34" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R34" t="n">
         <v>211.6331360021768</v>
@@ -25177,13 +25177,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K35" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M35" t="n">
         <v>281.0224045372727</v>
@@ -25192,16 +25192,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P35" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q35" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R35" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S35" t="n">
         <v>236.785106778059</v>
@@ -25253,10 +25253,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I36" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J36" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K36" t="n">
         <v>168.166555548718</v>
@@ -25271,16 +25271,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R36" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S36" t="n">
         <v>195.63287444794</v>
@@ -25335,28 +25335,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J37" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K37" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L37" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M37" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N37" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O37" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P37" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q37" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R37" t="n">
         <v>211.6331360021768</v>
@@ -25414,13 +25414,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J38" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K38" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M38" t="n">
         <v>281.0224045372727</v>
@@ -25429,16 +25429,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P38" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q38" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R38" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S38" t="n">
         <v>236.785106778059</v>
@@ -25490,10 +25490,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I39" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J39" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K39" t="n">
         <v>168.166555548718</v>
@@ -25508,16 +25508,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R39" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S39" t="n">
         <v>195.63287444794</v>
@@ -25572,28 +25572,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J40" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K40" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L40" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M40" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N40" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P40" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R40" t="n">
         <v>211.6331360021768</v>
@@ -25657,25 +25657,25 @@
         <v>268.5096182748763</v>
       </c>
       <c r="L41" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P41" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S41" t="n">
         <v>236.785106778059</v>
@@ -25727,10 +25727,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I42" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J42" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K42" t="n">
         <v>168.166555548718</v>
@@ -25742,7 +25742,7 @@
         <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>173.9674182222222</v>
@@ -25751,10 +25751,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R42" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S42" t="n">
         <v>195.63287444794</v>
@@ -25809,28 +25809,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J43" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K43" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L43" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M43" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N43" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O43" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P43" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R43" t="n">
         <v>211.6331360021768</v>
@@ -25891,10 +25891,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K44" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M44" t="n">
         <v>281.0224045372727</v>
@@ -25906,13 +25906,13 @@
         <v>280.7198179344578</v>
       </c>
       <c r="P44" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q44" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R44" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S44" t="n">
         <v>236.785106778059</v>
@@ -25964,16 +25964,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I45" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J45" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K45" t="n">
         <v>168.166555548718</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -25985,13 +25985,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R45" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S45" t="n">
         <v>195.63287444794</v>
@@ -26046,28 +26046,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J46" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K46" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L46" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M46" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N46" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O46" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P46" t="n">
         <v>168.0281649399601</v>
       </c>
       <c r="Q46" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R46" t="n">
         <v>211.6331360021768</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>271123.4867220406</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>160958.9853546092</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>284118.2811582515</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>242548.9026556709</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>135314.7068059008</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>233007.8686670684</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>30803.92669529852</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>162192.9194469687</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>117723.7305124703</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>165433.655334784</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>216817.3591495685</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>233444.4415918763</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>245745.5965523194</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>266502.3113893293</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.968590706586838e-11</v>
+        <v>191301.3475744255</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7637.28131611382</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4534.055925481953</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8003.331863612717</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6832.363455089324</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3811.68188185636</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6563.601934283617</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>867.7162449379879</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4568.814632308977</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3316.161422886488</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4660.102967177017</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6107.531243649817</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6575.899763151447</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6922.411170487871</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7507.107363079697</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5388.77035420917</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11455.92197417073</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6801.083888222929</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12004.99779541907</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10248.54518263398</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5717.522822784541</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9845.402901425425</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1301.574367406982</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6853.221948463466</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4974.24213432973</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6990.154450765525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9161.296865474726</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9863.849644727168</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10383.6167557318</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>11260.66104461955</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8083.155531313756</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
